--- a/resources/experiment 2/metrics/MAPE/upto time/Angina (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Angina (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5877834119531546</v>
+        <v>5877834119531547</v>
       </c>
       <c r="C2" t="n">
-        <v>5877834119531546</v>
+        <v>5877834119531547</v>
       </c>
       <c r="D2" t="n">
-        <v>5877834119531546</v>
+        <v>5877834119531547</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14942617984284.9</v>
+        <v>177469956896346.4</v>
       </c>
       <c r="C3" t="n">
-        <v>14942617984284.9</v>
+        <v>159962917570449.5</v>
       </c>
       <c r="D3" t="n">
-        <v>14942617984284.9</v>
+        <v>737471502163255.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192428215586604.6</v>
+        <v>8932460205461.195</v>
       </c>
       <c r="C4" t="n">
-        <v>192462450278973.3</v>
+        <v>9438776346173.814</v>
       </c>
       <c r="D4" t="n">
-        <v>192462450278973.3</v>
+        <v>192756897844512.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3005973595760650</v>
+        <v>393941520254848.1</v>
       </c>
       <c r="C5" t="n">
-        <v>3005973595760650</v>
+        <v>487676794515036.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3005973595760650</v>
+        <v>2808045136390766</v>
       </c>
     </row>
   </sheetData>
